--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Siglec1-Spn.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Siglec1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Spn</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>73.51350948589359</v>
+        <v>0.04769933333333334</v>
       </c>
       <c r="H2">
-        <v>73.51350948589359</v>
+        <v>0.143098</v>
       </c>
       <c r="I2">
-        <v>0.433057873682226</v>
+        <v>0.0002598428994384119</v>
       </c>
       <c r="J2">
-        <v>0.433057873682226</v>
+        <v>0.0002598428994384119</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.08565285697564</v>
+        <v>3.962310666666667</v>
       </c>
       <c r="N2">
-        <v>3.08565285697564</v>
+        <v>11.886932</v>
       </c>
       <c r="O2">
-        <v>0.3144738858926078</v>
+        <v>0.3675710495835373</v>
       </c>
       <c r="P2">
-        <v>0.3144738858926078</v>
+        <v>0.3675710495835373</v>
       </c>
       <c r="Q2">
-        <v>226.8371705714534</v>
+        <v>0.1889995772595556</v>
       </c>
       <c r="R2">
-        <v>226.8371705714534</v>
+        <v>1.700996195336</v>
       </c>
       <c r="S2">
-        <v>0.1361853923532397</v>
+        <v>9.55107272734066E-05</v>
       </c>
       <c r="T2">
-        <v>0.1361853923532397</v>
+        <v>9.551072727340659E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>73.51350948589359</v>
+        <v>0.04769933333333334</v>
       </c>
       <c r="H3">
-        <v>73.51350948589359</v>
+        <v>0.143098</v>
       </c>
       <c r="I3">
-        <v>0.433057873682226</v>
+        <v>0.0002598428994384119</v>
       </c>
       <c r="J3">
-        <v>0.433057873682226</v>
+        <v>0.0002598428994384119</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.14116931436576</v>
+        <v>4.185963999999999</v>
       </c>
       <c r="N3">
-        <v>4.14116931436576</v>
+        <v>12.557892</v>
       </c>
       <c r="O3">
-        <v>0.4220467002578663</v>
+        <v>0.388318663133322</v>
       </c>
       <c r="P3">
-        <v>0.4220467002578663</v>
+        <v>0.3883186631333219</v>
       </c>
       <c r="Q3">
-        <v>304.4318896743188</v>
+        <v>0.1996676921573333</v>
       </c>
       <c r="R3">
-        <v>304.4318896743188</v>
+        <v>1.797009229416</v>
       </c>
       <c r="S3">
-        <v>0.1827706466082714</v>
+        <v>0.0001009018473346103</v>
       </c>
       <c r="T3">
-        <v>0.1827706466082714</v>
+        <v>0.0001009018473346103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>73.51350948589359</v>
+        <v>0.04769933333333334</v>
       </c>
       <c r="H4">
-        <v>73.51350948589359</v>
+        <v>0.143098</v>
       </c>
       <c r="I4">
-        <v>0.433057873682226</v>
+        <v>0.0002598428994384119</v>
       </c>
       <c r="J4">
-        <v>0.433057873682226</v>
+        <v>0.0002598428994384119</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.5852894073904</v>
+        <v>2.590421666666666</v>
       </c>
       <c r="N4">
-        <v>2.5852894073904</v>
+        <v>7.771265</v>
       </c>
       <c r="O4">
-        <v>0.2634794138495258</v>
+        <v>0.240305238781698</v>
       </c>
       <c r="P4">
-        <v>0.2634794138495258</v>
+        <v>0.240305238781698</v>
       </c>
       <c r="Q4">
-        <v>190.0536973739744</v>
+        <v>0.1235613865522222</v>
       </c>
       <c r="R4">
-        <v>190.0536973739744</v>
+        <v>1.11205247897</v>
       </c>
       <c r="S4">
-        <v>0.1141018347207149</v>
+        <v>6.244160999527633E-05</v>
       </c>
       <c r="T4">
-        <v>0.1141018347207149</v>
+        <v>6.244160999527632E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>83.7774485193771</v>
+        <v>0.04769933333333334</v>
       </c>
       <c r="H5">
-        <v>83.7774485193771</v>
+        <v>0.143098</v>
       </c>
       <c r="I5">
-        <v>0.4935213129130424</v>
+        <v>0.0002598428994384119</v>
       </c>
       <c r="J5">
-        <v>0.4935213129130424</v>
+        <v>0.0002598428994384119</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.08565285697564</v>
+        <v>0.04101733333333333</v>
       </c>
       <c r="N5">
-        <v>3.08565285697564</v>
+        <v>0.123052</v>
       </c>
       <c r="O5">
-        <v>0.3144738858926078</v>
+        <v>0.00380504850144288</v>
       </c>
       <c r="P5">
-        <v>0.3144738858926078</v>
+        <v>0.00380504850144288</v>
       </c>
       <c r="Q5">
-        <v>258.5081233739455</v>
+        <v>0.001956499455111111</v>
       </c>
       <c r="R5">
-        <v>258.5081233739455</v>
+        <v>0.017608495096</v>
       </c>
       <c r="S5">
-        <v>0.1551995650425861</v>
+        <v>9.887148351187022E-07</v>
       </c>
       <c r="T5">
-        <v>0.1551995650425861</v>
+        <v>9.887148351187022E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>83.7774485193771</v>
+        <v>82.08493033333333</v>
       </c>
       <c r="H6">
-        <v>83.7774485193771</v>
+        <v>246.254791</v>
       </c>
       <c r="I6">
-        <v>0.4935213129130424</v>
+        <v>0.4471590021806044</v>
       </c>
       <c r="J6">
-        <v>0.4935213129130424</v>
+        <v>0.4471590021806045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.14116931436576</v>
+        <v>3.962310666666667</v>
       </c>
       <c r="N6">
-        <v>4.14116931436576</v>
+        <v>11.886932</v>
       </c>
       <c r="O6">
-        <v>0.4220467002578663</v>
+        <v>0.3675710495835373</v>
       </c>
       <c r="P6">
-        <v>0.4220467002578663</v>
+        <v>0.3675710495835373</v>
       </c>
       <c r="Q6">
-        <v>346.9365990443016</v>
+        <v>325.2459950323569</v>
       </c>
       <c r="R6">
-        <v>346.9365990443016</v>
+        <v>2927.213955291212</v>
       </c>
       <c r="S6">
-        <v>0.2082890416218795</v>
+        <v>0.164362703762252</v>
       </c>
       <c r="T6">
-        <v>0.2082890416218795</v>
+        <v>0.164362703762252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>83.7774485193771</v>
+        <v>82.08493033333333</v>
       </c>
       <c r="H7">
-        <v>83.7774485193771</v>
+        <v>246.254791</v>
       </c>
       <c r="I7">
-        <v>0.4935213129130424</v>
+        <v>0.4471590021806044</v>
       </c>
       <c r="J7">
-        <v>0.4935213129130424</v>
+        <v>0.4471590021806045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.5852894073904</v>
+        <v>4.185963999999999</v>
       </c>
       <c r="N7">
-        <v>2.5852894073904</v>
+        <v>12.557892</v>
       </c>
       <c r="O7">
-        <v>0.2634794138495258</v>
+        <v>0.388318663133322</v>
       </c>
       <c r="P7">
-        <v>0.2634794138495258</v>
+        <v>0.3883186631333219</v>
       </c>
       <c r="Q7">
-        <v>216.5889502353402</v>
+        <v>343.6045633178413</v>
       </c>
       <c r="R7">
-        <v>216.5889502353402</v>
+        <v>3092.441069860572</v>
       </c>
       <c r="S7">
-        <v>0.1300327062485769</v>
+        <v>0.1736401859348025</v>
       </c>
       <c r="T7">
-        <v>0.1300327062485769</v>
+        <v>0.1736401859348025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4635112087844</v>
+        <v>82.08493033333333</v>
       </c>
       <c r="H8">
-        <v>12.4635112087844</v>
+        <v>246.254791</v>
       </c>
       <c r="I8">
-        <v>0.07342081340473164</v>
+        <v>0.4471590021806044</v>
       </c>
       <c r="J8">
-        <v>0.07342081340473164</v>
+        <v>0.4471590021806045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.08565285697564</v>
+        <v>2.590421666666666</v>
       </c>
       <c r="N8">
-        <v>3.08565285697564</v>
+        <v>7.771265</v>
       </c>
       <c r="O8">
-        <v>0.3144738858926078</v>
+        <v>0.240305238781698</v>
       </c>
       <c r="P8">
-        <v>0.3144738858926078</v>
+        <v>0.240305238781698</v>
       </c>
       <c r="Q8">
-        <v>38.4580689693335</v>
+        <v>212.6345820422905</v>
       </c>
       <c r="R8">
-        <v>38.4580689693335</v>
+        <v>1913.711238380615</v>
       </c>
       <c r="S8">
-        <v>0.02308892849678202</v>
+        <v>0.107454650792396</v>
       </c>
       <c r="T8">
-        <v>0.02308892849678202</v>
+        <v>0.107454650792396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4635112087844</v>
+        <v>82.08493033333333</v>
       </c>
       <c r="H9">
-        <v>12.4635112087844</v>
+        <v>246.254791</v>
       </c>
       <c r="I9">
-        <v>0.07342081340473164</v>
+        <v>0.4471590021806044</v>
       </c>
       <c r="J9">
-        <v>0.07342081340473164</v>
+        <v>0.4471590021806045</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.14116931436576</v>
+        <v>0.04101733333333333</v>
       </c>
       <c r="N9">
-        <v>4.14116931436576</v>
+        <v>0.123052</v>
       </c>
       <c r="O9">
-        <v>0.4220467002578663</v>
+        <v>0.00380504850144288</v>
       </c>
       <c r="P9">
-        <v>0.4220467002578663</v>
+        <v>0.00380504850144288</v>
       </c>
       <c r="Q9">
-        <v>51.61351016707165</v>
+        <v>3.366904949125777</v>
       </c>
       <c r="R9">
-        <v>51.61351016707165</v>
+        <v>30.302144542132</v>
       </c>
       <c r="S9">
-        <v>0.03098701202771551</v>
+        <v>0.001701461691154003</v>
       </c>
       <c r="T9">
-        <v>0.03098701202771551</v>
+        <v>0.001701461691154003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>87.43620566666668</v>
+      </c>
+      <c r="H10">
+        <v>262.308617</v>
+      </c>
+      <c r="I10">
+        <v>0.4763101621892682</v>
+      </c>
+      <c r="J10">
+        <v>0.4763101621892683</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.962310666666667</v>
+      </c>
+      <c r="N10">
+        <v>11.886932</v>
+      </c>
+      <c r="O10">
+        <v>0.3675710495835373</v>
+      </c>
+      <c r="P10">
+        <v>0.3675710495835373</v>
+      </c>
+      <c r="Q10">
+        <v>346.4494103658939</v>
+      </c>
+      <c r="R10">
+        <v>3118.044693293045</v>
+      </c>
+      <c r="S10">
+        <v>0.1750778262432142</v>
+      </c>
+      <c r="T10">
+        <v>0.1750778262432142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>87.43620566666668</v>
+      </c>
+      <c r="H11">
+        <v>262.308617</v>
+      </c>
+      <c r="I11">
+        <v>0.4763101621892682</v>
+      </c>
+      <c r="J11">
+        <v>0.4763101621892683</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.185963999999999</v>
+      </c>
+      <c r="N11">
+        <v>12.557892</v>
+      </c>
+      <c r="O11">
+        <v>0.388318663133322</v>
+      </c>
+      <c r="P11">
+        <v>0.3883186631333219</v>
+      </c>
+      <c r="Q11">
+        <v>366.0048092172627</v>
+      </c>
+      <c r="R11">
+        <v>3294.043282955364</v>
+      </c>
+      <c r="S11">
+        <v>0.1849601254181524</v>
+      </c>
+      <c r="T11">
+        <v>0.1849601254181524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>87.43620566666668</v>
+      </c>
+      <c r="H12">
+        <v>262.308617</v>
+      </c>
+      <c r="I12">
+        <v>0.4763101621892682</v>
+      </c>
+      <c r="J12">
+        <v>0.4763101621892683</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.590421666666666</v>
+      </c>
+      <c r="N12">
+        <v>7.771265</v>
+      </c>
+      <c r="O12">
+        <v>0.240305238781698</v>
+      </c>
+      <c r="P12">
+        <v>0.240305238781698</v>
+      </c>
+      <c r="Q12">
+        <v>226.4966416100561</v>
+      </c>
+      <c r="R12">
+        <v>2038.469774490505</v>
+      </c>
+      <c r="S12">
+        <v>0.1144598272590414</v>
+      </c>
+      <c r="T12">
+        <v>0.1144598272590414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>87.43620566666668</v>
+      </c>
+      <c r="H13">
+        <v>262.308617</v>
+      </c>
+      <c r="I13">
+        <v>0.4763101621892682</v>
+      </c>
+      <c r="J13">
+        <v>0.4763101621892683</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04101733333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.123052</v>
+      </c>
+      <c r="O13">
+        <v>0.00380504850144288</v>
+      </c>
+      <c r="P13">
+        <v>0.00380504850144288</v>
+      </c>
+      <c r="Q13">
+        <v>3.586399993231556</v>
+      </c>
+      <c r="R13">
+        <v>32.277599939084</v>
+      </c>
+      <c r="S13">
+        <v>0.00181238326886029</v>
+      </c>
+      <c r="T13">
+        <v>0.00181238326886029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>14.001058</v>
+      </c>
+      <c r="H14">
+        <v>42.003174</v>
+      </c>
+      <c r="I14">
+        <v>0.07627099273068888</v>
+      </c>
+      <c r="J14">
+        <v>0.07627099273068889</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.962310666666667</v>
+      </c>
+      <c r="N14">
+        <v>11.886932</v>
+      </c>
+      <c r="O14">
+        <v>0.3675710495835373</v>
+      </c>
+      <c r="P14">
+        <v>0.3675710495835373</v>
+      </c>
+      <c r="Q14">
+        <v>55.47654145801867</v>
+      </c>
+      <c r="R14">
+        <v>499.2888731221681</v>
+      </c>
+      <c r="S14">
+        <v>0.02803500885079765</v>
+      </c>
+      <c r="T14">
+        <v>0.02803500885079766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>12.4635112087844</v>
-      </c>
-      <c r="H10">
-        <v>12.4635112087844</v>
-      </c>
-      <c r="I10">
-        <v>0.07342081340473164</v>
-      </c>
-      <c r="J10">
-        <v>0.07342081340473164</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.5852894073904</v>
-      </c>
-      <c r="N10">
-        <v>2.5852894073904</v>
-      </c>
-      <c r="O10">
-        <v>0.2634794138495258</v>
-      </c>
-      <c r="P10">
-        <v>0.2634794138495258</v>
-      </c>
-      <c r="Q10">
-        <v>32.22178350696183</v>
-      </c>
-      <c r="R10">
-        <v>32.22178350696183</v>
-      </c>
-      <c r="S10">
-        <v>0.0193448728802341</v>
-      </c>
-      <c r="T10">
-        <v>0.0193448728802341</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>14.001058</v>
+      </c>
+      <c r="H15">
+        <v>42.003174</v>
+      </c>
+      <c r="I15">
+        <v>0.07627099273068888</v>
+      </c>
+      <c r="J15">
+        <v>0.07627099273068889</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.185963999999999</v>
+      </c>
+      <c r="N15">
+        <v>12.557892</v>
+      </c>
+      <c r="O15">
+        <v>0.388318663133322</v>
+      </c>
+      <c r="P15">
+        <v>0.3883186631333219</v>
+      </c>
+      <c r="Q15">
+        <v>58.60792474991199</v>
+      </c>
+      <c r="R15">
+        <v>527.471322749208</v>
+      </c>
+      <c r="S15">
+        <v>0.02961744993303242</v>
+      </c>
+      <c r="T15">
+        <v>0.02961744993303243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>14.001058</v>
+      </c>
+      <c r="H16">
+        <v>42.003174</v>
+      </c>
+      <c r="I16">
+        <v>0.07627099273068888</v>
+      </c>
+      <c r="J16">
+        <v>0.07627099273068889</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.590421666666666</v>
+      </c>
+      <c r="N16">
+        <v>7.771265</v>
+      </c>
+      <c r="O16">
+        <v>0.240305238781698</v>
+      </c>
+      <c r="P16">
+        <v>0.240305238781698</v>
+      </c>
+      <c r="Q16">
+        <v>36.26864399945666</v>
+      </c>
+      <c r="R16">
+        <v>326.41779599511</v>
+      </c>
+      <c r="S16">
+        <v>0.01832831912026535</v>
+      </c>
+      <c r="T16">
+        <v>0.01832831912026535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>14.001058</v>
+      </c>
+      <c r="H17">
+        <v>42.003174</v>
+      </c>
+      <c r="I17">
+        <v>0.07627099273068888</v>
+      </c>
+      <c r="J17">
+        <v>0.07627099273068889</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04101733333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.123052</v>
+      </c>
+      <c r="O17">
+        <v>0.00380504850144288</v>
+      </c>
+      <c r="P17">
+        <v>0.00380504850144288</v>
+      </c>
+      <c r="Q17">
+        <v>0.5742860630053332</v>
+      </c>
+      <c r="R17">
+        <v>5.168574567048</v>
+      </c>
+      <c r="S17">
+        <v>0.0002902148265934685</v>
+      </c>
+      <c r="T17">
+        <v>0.0002902148265934685</v>
       </c>
     </row>
   </sheetData>
